--- a/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_02.08.24_output.xlsx
+++ b/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731700037.2475133</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731700037.785096</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700037.2475133.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700037.785096.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>2981.65</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>2990</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>8.349999999999909</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731700039.5246308</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731700039.7969294</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700039.5246308.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700039.7969294.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>2983.75</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>2989.45</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>5.699999999999818</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731700040.6178198</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731700042.1117804</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700040.6178198.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700042.1117804.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>2981</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>2974.1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-6.900000000000091</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731700042.384373</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731700042.619793</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700042.384373.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700042.619793.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>2971.1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>2974.1</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>3</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731700042.7045627</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731700043.1317556</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700042.7045627.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700043.1317556.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>2976.75</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>2975.35</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731700043.3935058</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731700044.10215</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700043.3935058.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700044.10215.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>2974.4</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2974.15</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731700044.2675653</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731700044.740043</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700044.2675653.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700044.740043.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>2975.35</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2975.75</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.4000000000000909</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731700045.379817</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731700046.7230392</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700045.379817.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700046.7230392.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>2970.3</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2962.35</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-7.950000000000273</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731700046.7936304</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731700047.096569</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700046.7936304.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700047.096569.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>2963.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>2961.8</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1.699999999999818</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731700047.3490632</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731700047.5341783</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700047.3490632.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700047.5341783.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>2968.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>2961.8</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>6.699999999999818</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731700048.0563061</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731700048.5990026</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700048.0563061.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700048.5990026.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>2960.55</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>2960</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.5500000000001819</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731700049.1485343</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731700050.4309442</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700049.1485343.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700050.4309442.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>2961.95</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>2966.05</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-4.100000000000364</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731700051.7571647</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731700053.1734626</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700051.7571647.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700053.1734626.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>2972.8</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>2979.7</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-6.899999999999636</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731700053.214948</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731700054.9940372</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700053.214948.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700054.9940372.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>2977.65</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>2966.65</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-11</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731700055.0081751</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731700055.185141</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700055.0081751.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700055.185141.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>2966.65</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>2961.75</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>4.900000000000091</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731700055.308983</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731700055.5852993</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700055.308983.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700055.5852993.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>2958.1</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>2963.15</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>5.050000000000182</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731700056.5058298</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731700057.174438</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700056.5058298.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700057.174438.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>2960.65</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>2962.2</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1.549999999999727</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731700057.2215092</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731700057.998764</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700057.2215092.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700057.998764.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>2962.2</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>2962.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.3000000000001819</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731700058.362947</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731700059.777399</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700058.362947.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700059.777399.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>2963.2</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>2963.65</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.4500000000002728</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1527,51 +1657,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731700059.791332</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731700059.8592494</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700059.791332.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700059.8592494.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>2963.65</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>2962.2</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>1.450000000000273</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1579,51 +1715,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731700060.0026877</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731700060.1979108</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700060.0026877.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700060.1979108.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>2964.1</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>2962.65</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.449999999999818</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1631,51 +1773,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731700060.4485452</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731700061.4713552</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700060.4485452.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700061.4713552.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>2964.95</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>2963.9</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1.049999999999727</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1683,51 +1831,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731700062.0181134</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731700062.2804663</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700062.0181134.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700062.2804663.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>2966.3</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>2963.4</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>2.900000000000091</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1735,95 +1889,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731700062.6986368</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731700062.6986368.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731700062.6986368.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>2967.2</v>
       </c>
-      <c r="J26" t="n">
-        <v>2967.2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2965.3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.899999999999636</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731700062.9127436</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731700063.1019456</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700062.9127436.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700063.1019456.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>11.857</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>11.859</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.002000000000000668</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1831,51 +1997,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731700063.1168785</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731700063.387699</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700063.1168785.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700063.387699.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>11.859</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>11.857</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.002000000000000668</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1883,51 +2055,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731700063.4036374</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731700063.686259</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700063.4036374.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700063.686259.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>11.857</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>11.859</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.002000000000000668</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1935,51 +2113,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731700063.7349987</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731700063.9204586</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700063.7349987.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700063.9204586.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>11.859</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>11.855</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.003999999999999559</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1987,44 +2171,50 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731700064.6912003</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731700064.6912003.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731700064.6912003.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>11.859</v>
       </c>
-      <c r="J31" t="n">
-        <v>11.859</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>11.869</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.009999999999999787</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.08</v>
       </c>
     </row>
   </sheetData>
@@ -2085,16 +2275,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.299999999998818</v>
+        <v>9.199999999998454</v>
       </c>
       <c r="C2" t="n">
         <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3041666666666174</v>
+        <v>0.3833333333332689</v>
       </c>
       <c r="E2" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
@@ -2107,19 +2297,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01000000000000156</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002000000000000313</v>
+        <v>3.552713678800501e-16</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
